--- a/back/public/excel/data.xlsx
+++ b/back/public/excel/data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alissin\Desktop\WORK\ghahreman\gahreman-qrcode_game\back\storage\app\private\old-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alissin\Desktop\WORK\ghahreman\gahreman-qrcode_game\back\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F294A5C-E117-4A23-B771-D2BBA7683D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2413837A-6630-422B-AD22-BDBF6192A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="منطقه" sheetId="2" r:id="rId1"/>
     <sheet name="عملیات" sheetId="1" r:id="rId2"/>
     <sheet name="سوال چهار گزینهای" sheetId="3" r:id="rId3"/>
+    <sheet name="coin" sheetId="4" r:id="rId4"/>
+    <sheet name="score" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk207381974" localSheetId="1">عملیات!$B$2</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>نیاز به قفل منطقه</t>
   </si>
@@ -135,9 +137,6 @@
   </si>
   <si>
     <t>کیوآرامتیاز50</t>
-  </si>
-  <si>
-    <t>سوال چهار گزینه ای</t>
   </si>
   <si>
     <t>تجربه نگاری</t>
@@ -409,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,6 +420,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F184C14-4002-4A0B-9679-5CCDDA475392}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -783,10 +785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,15 +797,9 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -819,47 +815,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -873,47 +833,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -926,50 +850,14 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -985,47 +873,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1038,50 +890,14 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1097,47 +913,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1153,47 +933,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1209,47 +953,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1265,47 +973,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1321,47 +993,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1377,43 +1013,7 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1" t="b">
+      <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1427,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF292D30-FC8E-460E-BA5C-2C6CAFF12619}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1443,31 +1043,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1478,19 +1078,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1507,19 +1107,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1536,19 +1136,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1565,19 +1165,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1594,19 +1194,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1623,19 +1223,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1652,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1681,19 +1281,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1710,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1739,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1766,6 +1366,443 @@
     </row>
     <row r="15" spans="1:9">
       <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF82A327-D2CE-4BAC-ABA0-0F5A267453CE}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09CB95-2827-40C1-B72E-45F1F6D2A58C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/back/public/excel/data.xlsx
+++ b/back/public/excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alissin\Desktop\WORK\ghahreman\gahreman-qrcode_game\back\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2413837A-6630-422B-AD22-BDBF6192A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC49DE-2E01-462A-870B-C340E5A92ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="منطقه" sheetId="2" r:id="rId1"/>
@@ -22,24 +22,30 @@
   <definedNames>
     <definedName name="_Hlk207381974" localSheetId="1">عملیات!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>نیاز به قفل منطقه</t>
   </si>
   <si>
-    <t>عملیات پیش نیاز</t>
-  </si>
-  <si>
     <t>شبیه سازی حکمرانی</t>
   </si>
   <si>
@@ -107,39 +113,6 @@
   </si>
   <si>
     <t>امتیاز اسکن پایان عملیات</t>
-  </si>
-  <si>
-    <t>کیوآرسکه 10</t>
-  </si>
-  <si>
-    <t>کیوآرسکه 20</t>
-  </si>
-  <si>
-    <t>کیوآرسکه 30</t>
-  </si>
-  <si>
-    <t>کیوآرسکه 40</t>
-  </si>
-  <si>
-    <t>کیوآرسکه 50</t>
-  </si>
-  <si>
-    <t>کیوآرامتیاز 10</t>
-  </si>
-  <si>
-    <t>کیوآرامتیاز 20</t>
-  </si>
-  <si>
-    <t>کیوآرامتیاز 30</t>
-  </si>
-  <si>
-    <t>کیوآرامتیاز 40</t>
-  </si>
-  <si>
-    <t>کیوآرامتیاز50</t>
-  </si>
-  <si>
-    <t>تجربه نگاری</t>
   </si>
   <si>
     <t>کد سوال</t>
@@ -355,12 +328,51 @@
   <si>
     <t>همرزمان‌شهید</t>
   </si>
+  <si>
+    <t>تعداد</t>
+  </si>
+  <si>
+    <t>عنوان</t>
+  </si>
+  <si>
+    <t>ده سکه</t>
+  </si>
+  <si>
+    <t>بیست سکه</t>
+  </si>
+  <si>
+    <t>سی سکه</t>
+  </si>
+  <si>
+    <t>چهل سکه</t>
+  </si>
+  <si>
+    <t>پنجاه سکه</t>
+  </si>
+  <si>
+    <t>مقدار</t>
+  </si>
+  <si>
+    <t>ده امتیاز</t>
+  </si>
+  <si>
+    <t>بیست امتیاز</t>
+  </si>
+  <si>
+    <t>سی امتیاز</t>
+  </si>
+  <si>
+    <t>چهل امتیاز</t>
+  </si>
+  <si>
+    <t>پنجاه امتیاز</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,11 +393,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Vazirmatn"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,20 +415,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,79 +705,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F184C14-4002-4A0B-9679-5CCDDA475392}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -785,236 +812,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="b">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1025,13 +986,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF292D30-FC8E-460E-BA5C-2C6CAFF12619}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView rightToLeft="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="75.7109375" customWidth="1"/>
     <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
@@ -1041,36 +1002,36 @@
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,19 +1039,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1099,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1107,19 +1068,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1128,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1136,19 +1097,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1157,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1165,19 +1126,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1186,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1194,19 +1155,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1215,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1223,19 +1184,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1244,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1252,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1273,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1281,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1302,7 +1263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1310,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1331,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1339,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1359,13 +1320,6 @@
       <c r="I11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,233 +1328,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF82A327-D2CE-4BAC-ABA0-0F5A267453CE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K11"/>
+    <sheetView rightToLeft="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,199 +1415,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09CB95-2827-40C1-B72E-45F1F6D2A58C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
